--- a/doc/progress_tracker_2021.xlsx
+++ b/doc/progress_tracker_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaker\GoogleDrive\HEBEC\Thesis\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaker\Documents\Thesis\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86827B85-7E92-44CB-9AFE-DD7A91A186A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC715526-8ADE-4A12-BB2D-FEA84A21086F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9750" yWindow="9135" windowWidth="19050" windowHeight="6465" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29100" windowHeight="16500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021" sheetId="9" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Wordcount" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -96,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="203">
   <si>
     <t>Section</t>
   </si>
@@ -461,9 +462,6 @@
     <t>Progress summary</t>
   </si>
   <si>
-    <t>Next action</t>
-  </si>
-  <si>
     <t>Submission target</t>
   </si>
   <si>
@@ -656,48 +654,9 @@
     <t>Submit to Andrew</t>
   </si>
   <si>
-    <t>Chapter preamble</t>
-  </si>
-  <si>
-    <t>Chapter preamble, peer review</t>
-  </si>
-  <si>
-    <t>Wait for S</t>
-  </si>
-  <si>
-    <t>paste in some formulae and diagrams</t>
-  </si>
-  <si>
     <t>Part</t>
   </si>
   <si>
-    <t>Weeks writing</t>
-  </si>
-  <si>
-    <t>Total weeks</t>
-  </si>
-  <si>
-    <t>TOTAL WEEKS</t>
-  </si>
-  <si>
-    <t>Start estimate</t>
-  </si>
-  <si>
-    <t>Estimated finish</t>
-  </si>
-  <si>
-    <t>First review</t>
-  </si>
-  <si>
-    <t>Second review</t>
-  </si>
-  <si>
-    <t>Send to S</t>
-  </si>
-  <si>
-    <t>Send to A</t>
-  </si>
-  <si>
     <t>Unstructured notes</t>
   </si>
   <si>
@@ -729,6 +688,24 @@
   </si>
   <si>
     <t>Estimate end</t>
+  </si>
+  <si>
+    <t>Draft</t>
+  </si>
+  <si>
+    <t>S comments</t>
+  </si>
+  <si>
+    <t>Revise</t>
+  </si>
+  <si>
+    <t>A comments</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -765,12 +742,24 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -785,7 +774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -794,6 +783,8 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1127,35 +1118,35 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C1" s="4">
         <f ca="1">TODAY()</f>
-        <v>44298</v>
+        <v>44343</v>
       </c>
       <c r="D1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="5">
         <v>44222</v>
       </c>
       <c r="G2">
         <f ca="1">C1-C2</f>
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="H2">
         <f ca="1">0.8*G2</f>
-        <v>60.800000000000004</v>
+        <v>96.800000000000011</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C3" s="4">
         <f>D14</f>
@@ -1163,12 +1154,12 @@
       </c>
       <c r="D3">
         <f ca="1">C3-C1</f>
-        <v>36</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" s="4">
         <f>F14</f>
@@ -1187,34 +1178,34 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1222,20 +1213,20 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" ref="D7:D14" si="0">IF(I7&lt;2,$C$2+H7,H7+_xlfn.XLOOKUP(I7-1,I$7:I$14,D$7:D$14,0))</f>
+        <f t="shared" ref="D7:D14" si="0">_xlfn.SINGLE(IF(I7&lt;2,$C$2+H7,H7+_xlfn.XLOOKUP(I7-1,I$7:I$14,D$7:D$14,0)))</f>
         <v>44229</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" ref="F7:F14" si="1">IF(I7&lt;2,$C$3+ROUNDDOWN(1.2*E7,0),ROUNDDOWN(1.2*E7,0)+_xlfn.XLOOKUP(I7-1,I$7:I$14,F$7:F$14,0))</f>
+        <f t="shared" ref="F7:F14" si="1">_xlfn.SINGLE(IF(I7&lt;2,$C$3+ROUNDDOWN(1.2*E7,0),ROUNDDOWN(1.2*E7,0)+_xlfn.XLOOKUP(I7-1,I$7:I$14,F$7:F$14,0)))</f>
         <v>44340</v>
       </c>
       <c r="G7">
@@ -1251,13 +1242,13 @@
       </c>
       <c r="J7" s="6">
         <f t="shared" ref="J7:J14" ca="1" si="4">D7-TODAY()</f>
-        <v>-69</v>
+        <v>-114</v>
       </c>
       <c r="K7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L7" t="s">
         <v>131</v>
-      </c>
-      <c r="L7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1265,7 +1256,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -1293,7 +1284,7 @@
       </c>
       <c r="J8" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>-12</v>
+        <v>-57</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1301,7 +1292,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9">
         <v>15</v>
@@ -1330,7 +1321,7 @@
       </c>
       <c r="J9" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1338,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -1367,7 +1358,7 @@
       </c>
       <c r="J10" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1404,7 +1395,7 @@
       </c>
       <c r="J11" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1412,7 +1403,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -1441,13 +1432,13 @@
       </c>
       <c r="J12" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>27</v>
+        <v>-18</v>
       </c>
       <c r="K12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1455,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1484,12 +1475,12 @@
       </c>
       <c r="J13" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -1518,7 +1509,7 @@
       </c>
       <c r="J14" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>36</v>
+        <v>-9</v>
       </c>
     </row>
   </sheetData>
@@ -1535,18 +1526,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1558,7 +1549,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -1567,29 +1558,23 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>197</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>121</v>
+        <v>198</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>199</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1600,19 +1585,6 @@
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.5</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <f>SUM(F4:G4)</f>
-        <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1621,24 +1593,11 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>188</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <f>SUM(F5:G5)</f>
-        <v>1</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1648,18 +1607,11 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>188</v>
-      </c>
-      <c r="I6">
-        <f>SUM(F6:G6)</f>
-        <v>0</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -1669,129 +1621,57 @@
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>186</v>
-      </c>
-      <c r="I7">
-        <f>SUM(F7:G7)</f>
-        <v>0</v>
-      </c>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>189</v>
-      </c>
-      <c r="I8">
-        <f>SUM(F8:G8)</f>
-        <v>0</v>
-      </c>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>187</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <f>SUM(F9:G9)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <f>SUM(F10:G10)</f>
-        <v>2</v>
-      </c>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="I11">
-        <f>SUM(F11:G11)</f>
-        <v>0.5</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12">
-        <v>6</v>
-      </c>
-      <c r="H12" t="s">
-        <v>193</v>
-      </c>
-      <c r="I12">
-        <f>SUM(I4:I11)</f>
-        <v>6</v>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>194</v>
-      </c>
-      <c r="I13" s="4">
-        <v>44298</v>
-      </c>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H14" t="s">
-        <v>195</v>
-      </c>
-      <c r="I14" s="4">
-        <f>I13+7*I12</f>
-        <v>44340</v>
-      </c>
+      <c r="I14" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
@@ -1811,7 +1691,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -1819,7 +1699,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -1827,7 +1707,7 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -1835,7 +1715,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -1843,7 +1723,7 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -1862,16 +1742,16 @@
         <v>3</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -1879,7 +1759,7 @@
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E27">
         <v>0.5</v>
@@ -1897,10 +1777,10 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D28" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="F28">
         <v>0.5</v>
@@ -1915,10 +1795,10 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D29" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="F29">
         <v>0.5</v>
@@ -1936,7 +1816,7 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="F30">
         <v>0.2</v>
@@ -1951,7 +1831,7 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E31">
         <v>0.5</v>
@@ -1972,7 +1852,7 @@
         <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="F32">
         <v>0.2</v>
@@ -1990,7 +1870,7 @@
         <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E33">
         <v>3</v>
@@ -2011,7 +1891,7 @@
         <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E34">
         <v>0.5</v>
@@ -2029,7 +1909,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G35" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="H35">
         <f>INT(SUM(H27:H34))</f>
@@ -2038,7 +1918,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G36" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="H36" s="7">
         <v>44298</v>
@@ -2046,7 +1926,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G37" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="H37" s="4">
         <f>H36+H35*7</f>
@@ -2066,8 +1946,8 @@
       <c r="A41" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D4:D13">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="D13">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2130,13 +2010,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
         <v>138</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>139</v>
-      </c>
-      <c r="D2" t="s">
-        <v>140</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -2154,13 +2034,13 @@
       </c>
       <c r="B3" s="1"/>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -2169,13 +2049,13 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -2184,13 +2064,13 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -2201,16 +2081,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" t="s">
         <v>143</v>
       </c>
-      <c r="C6" t="s">
-        <v>144</v>
-      </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I6">
         <v>4</v>
@@ -2218,10 +2098,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" t="s">
         <v>145</v>
-      </c>
-      <c r="D7" t="s">
-        <v>146</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2230,7 +2110,7 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2239,7 +2119,7 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2248,7 +2128,7 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2258,7 +2138,7 @@
       <c r="A11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2267,10 +2147,10 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="C12" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2279,7 +2159,7 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="D13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2288,7 +2168,7 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="D14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2298,7 +2178,7 @@
       <c r="A15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2308,7 +2188,7 @@
       <c r="A16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2318,7 +2198,7 @@
       <c r="A17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2327,7 +2207,7 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2337,10 +2217,10 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="C19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" t="s">
         <v>158</v>
-      </c>
-      <c r="D19" t="s">
-        <v>159</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2349,7 +2229,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="D20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2358,7 +2238,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="D21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2367,7 +2247,7 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="D22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2376,10 +2256,10 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="C23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" t="s">
         <v>163</v>
-      </c>
-      <c r="D23" t="s">
-        <v>164</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2388,7 +2268,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="D24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2398,7 +2278,7 @@
       <c r="A25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E25">
         <v>0</v>

--- a/doc/progress_tracker_2021.xlsx
+++ b/doc/progress_tracker_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaker\Documents\Thesis\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC715526-8ADE-4A12-BB2D-FEA84A21086F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51F7EDE-D249-4023-AC2C-67E79E46926A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29100" windowHeight="16500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="Wordcount" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -97,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="249">
   <si>
     <t>Section</t>
   </si>
@@ -636,9 +635,6 @@
     <t>Revision buffer</t>
   </si>
   <si>
-    <t>Appendices</t>
-  </si>
-  <si>
     <t>Unstructured text/notes</t>
   </si>
   <si>
@@ -648,64 +644,205 @@
     <t>Final edits</t>
   </si>
   <si>
-    <t>Submit to Sean</t>
-  </si>
-  <si>
-    <t>Submit to Andrew</t>
-  </si>
-  <si>
     <t>Part</t>
   </si>
   <si>
-    <t>Unstructured notes</t>
-  </si>
-  <si>
-    <t>With Sean</t>
-  </si>
-  <si>
-    <t>Content complete</t>
-  </si>
-  <si>
-    <t>Content complete*</t>
-  </si>
-  <si>
-    <t>Writing weeks</t>
-  </si>
-  <si>
-    <t>Revision 1 weeks</t>
-  </si>
-  <si>
-    <t>Revision 2 weeks</t>
-  </si>
-  <si>
-    <t>total weeks</t>
-  </si>
-  <si>
-    <t>Total time on</t>
-  </si>
-  <si>
-    <t>Estimate from</t>
-  </si>
-  <si>
-    <t>Estimate end</t>
-  </si>
-  <si>
     <t>Draft</t>
   </si>
   <si>
-    <t>S comments</t>
-  </si>
-  <si>
-    <t>Revise</t>
-  </si>
-  <si>
-    <t>A comments</t>
-  </si>
-  <si>
     <t>Finish</t>
   </si>
   <si>
-    <t>B</t>
+    <t>Calendar</t>
+  </si>
+  <si>
+    <t>Towards a lattice trap</t>
+  </si>
+  <si>
+    <t>Send to S</t>
+  </si>
+  <si>
+    <t>June goal</t>
+  </si>
+  <si>
+    <t>June stretch goal</t>
+  </si>
+  <si>
+    <t>QD paper</t>
+  </si>
+  <si>
+    <t>Focus:</t>
+  </si>
+  <si>
+    <t>Due:</t>
+  </si>
+  <si>
+    <t>QD paper and apparatus</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Apparatus</t>
+  </si>
+  <si>
+    <t>Send to A</t>
+  </si>
+  <si>
+    <t>Transitions</t>
+  </si>
+  <si>
+    <t>Send to S&amp;A</t>
+  </si>
+  <si>
+    <t>QD chap</t>
+  </si>
+  <si>
+    <t>send to S&amp;A</t>
+  </si>
+  <si>
+    <t>Resubmit</t>
+  </si>
+  <si>
+    <t>QD paper -&gt; Sean</t>
+  </si>
+  <si>
+    <t>Apparatus -&gt; Andrew</t>
+  </si>
+  <si>
+    <t>lattice &amp; Main works chaps</t>
+  </si>
+  <si>
+    <t>main works chaps -&gt; S &amp; A</t>
+  </si>
+  <si>
+    <t>Lattice &amp; head/tail</t>
+  </si>
+  <si>
+    <t>Lattice chapter -&gt; Sean</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Intro/conclusion draft</t>
+  </si>
+  <si>
+    <t>Gameplan</t>
+  </si>
+  <si>
+    <t>Proceed using master June todo</t>
+  </si>
+  <si>
+    <t>Check-off each task, count pomodoros on as estimate of time in</t>
+  </si>
+  <si>
+    <t>Reach goals</t>
+  </si>
+  <si>
+    <t>Talk</t>
+  </si>
+  <si>
+    <t>Tuneout chapter</t>
+  </si>
+  <si>
+    <t>Adjust goals as learning along the way</t>
+  </si>
+  <si>
+    <t>If ahead of goals on June 14th, consider booking talk</t>
+  </si>
+  <si>
+    <t>Lattice &amp; Apparatus chaps, half day on talk scoping</t>
+  </si>
+  <si>
+    <t>S reply</t>
+  </si>
+  <si>
+    <t>A reply</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Goal due</t>
+  </si>
+  <si>
+    <t>Deliver</t>
+  </si>
+  <si>
+    <t>Structured notes/pre-edit</t>
+  </si>
+  <si>
+    <t>July goals</t>
+  </si>
+  <si>
+    <t>Mark tasks done in calendar?</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Practise</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>Mostly fig changes in apparatus</t>
+  </si>
+  <si>
+    <t>Some minor text updates</t>
+  </si>
+  <si>
+    <t>MCP fig, laser cooling, TCP lock loop</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>Second goal:</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Th</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>SENT CH2</t>
   </si>
 </sst>
 </file>
@@ -742,7 +879,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -757,12 +894,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -770,11 +931,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -784,7 +1025,22 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1122,7 +1378,7 @@
       </c>
       <c r="C1" s="4">
         <f ca="1">TODAY()</f>
-        <v>44343</v>
+        <v>44356</v>
       </c>
       <c r="D1" t="s">
         <v>177</v>
@@ -1137,11 +1393,11 @@
       </c>
       <c r="G2">
         <f ca="1">C1-C2</f>
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H2">
         <f ca="1">0.8*G2</f>
-        <v>96.800000000000011</v>
+        <v>107.2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1154,7 +1410,7 @@
       </c>
       <c r="D3">
         <f ca="1">C3-C1</f>
-        <v>-9</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1242,7 +1498,7 @@
       </c>
       <c r="J7" s="6">
         <f t="shared" ref="J7:J14" ca="1" si="4">D7-TODAY()</f>
-        <v>-114</v>
+        <v>-127</v>
       </c>
       <c r="K7" t="s">
         <v>130</v>
@@ -1284,7 +1540,7 @@
       </c>
       <c r="J8" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>-57</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1321,7 +1577,7 @@
       </c>
       <c r="J9" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>-36</v>
+        <v>-49</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1358,7 +1614,7 @@
       </c>
       <c r="J10" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>-29</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1395,7 +1651,7 @@
       </c>
       <c r="J11" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>-22</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1432,7 +1688,7 @@
       </c>
       <c r="J12" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>-18</v>
+        <v>-31</v>
       </c>
       <c r="K12" t="s">
         <v>129</v>
@@ -1475,7 +1731,7 @@
       </c>
       <c r="J13" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>-16</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1509,7 +1765,7 @@
       </c>
       <c r="J14" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>-9</v>
+        <v>-22</v>
       </c>
     </row>
   </sheetData>
@@ -1524,10 +1780,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:K41"/>
+  <dimension ref="A2:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,21 +1791,25 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -1558,25 +1818,28 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1586,8 +1849,16 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D4" s="23"/>
+      <c r="E4" s="12"/>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5">
         <v>2</v>
@@ -1597,12 +1868,16 @@
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="K5" s="11">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -1611,338 +1886,663 @@
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="K6" s="11">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="23"/>
+      <c r="K7" s="10">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>202</v>
+      <c r="D8" s="8"/>
+      <c r="E8" s="23"/>
+      <c r="K8" s="8">
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D9" s="11"/>
+      <c r="K9" s="23"/>
+      <c r="L9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E10" s="23"/>
+      <c r="K10" s="13"/>
+      <c r="L10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="I12" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="16"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="I13" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="N13" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="O13" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="21"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I14" s="9">
+        <v>31</v>
+      </c>
+      <c r="J14" s="17">
+        <v>1</v>
+      </c>
+      <c r="K14" s="17">
+        <v>2</v>
+      </c>
+      <c r="L14" s="17">
+        <v>3</v>
+      </c>
+      <c r="M14" s="17">
+        <v>4</v>
+      </c>
+      <c r="N14" s="9">
+        <v>5</v>
+      </c>
+      <c r="O14" s="17">
         <v>6</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="18"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I15" s="9"/>
+      <c r="J15" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q15" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="R15" s="18"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q16" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="R16" s="18"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="18"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>183</v>
+      </c>
+      <c r="G18" t="s">
+        <v>224</v>
+      </c>
+      <c r="I18" s="9">
+        <v>7</v>
+      </c>
+      <c r="J18" s="17">
+        <v>8</v>
+      </c>
+      <c r="K18" s="17">
+        <v>9</v>
+      </c>
+      <c r="L18" s="17">
+        <v>10</v>
+      </c>
+      <c r="M18" s="17">
+        <v>11</v>
+      </c>
+      <c r="N18" s="9">
+        <v>12</v>
+      </c>
+      <c r="O18" s="17">
+        <v>13</v>
+      </c>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="18"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E19" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" t="s">
+        <v>226</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q19" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="R19" s="18"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" t="s">
+        <v>223</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q20" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="R20" s="18"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E21" t="s">
+        <v>198</v>
+      </c>
+      <c r="F21" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" t="s">
+        <v>222</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="18"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F22" t="s">
+        <v>201</v>
+      </c>
+      <c r="G22" t="s">
+        <v>222</v>
+      </c>
+      <c r="I22" s="9">
+        <v>14</v>
+      </c>
+      <c r="J22" s="17">
+        <v>15</v>
+      </c>
+      <c r="K22" s="17">
+        <v>16</v>
+      </c>
+      <c r="L22" s="17">
+        <v>17</v>
+      </c>
+      <c r="M22" s="17">
+        <v>18</v>
+      </c>
+      <c r="N22" s="9">
+        <v>19</v>
+      </c>
+      <c r="O22" s="17">
+        <v>20</v>
+      </c>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="18"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23" t="s">
+        <v>225</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q23" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="R23" s="18"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" t="s">
+        <v>224</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q24" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="R24" s="18"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>235</v>
+      </c>
+      <c r="F25" t="s">
+        <v>234</v>
+      </c>
+      <c r="G25" t="s">
+        <v>224</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="R25" s="18"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="I26" s="9">
+        <v>21</v>
+      </c>
+      <c r="J26" s="17">
+        <v>22</v>
+      </c>
+      <c r="K26" s="17">
+        <v>23</v>
+      </c>
+      <c r="L26" s="17">
+        <v>24</v>
+      </c>
+      <c r="M26" s="17">
         <v>25</v>
       </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="N26" s="9">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I14" s="4"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18">
+      <c r="O26" s="17">
+        <v>27</v>
+      </c>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="18"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I27" s="9"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q27" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="R27" s="18"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E28" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q28" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="R28" s="18"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E29" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="18"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>215</v>
+      </c>
+      <c r="F30" t="s">
+        <v>232</v>
+      </c>
+      <c r="G30" t="s">
+        <v>226</v>
+      </c>
+      <c r="I30" s="9">
+        <v>28</v>
+      </c>
+      <c r="J30" s="17">
+        <v>29</v>
+      </c>
+      <c r="K30" s="17">
+        <v>30</v>
+      </c>
+      <c r="L30" s="17">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19">
+      <c r="M30" s="17">
         <v>2</v>
       </c>
-      <c r="C19" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20">
+      <c r="N30" s="9">
         <v>3</v>
       </c>
-      <c r="C20" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21">
+      <c r="O30" s="17">
         <v>4</v>
       </c>
-      <c r="C21" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="3">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="18"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>233</v>
+      </c>
+      <c r="G31" t="s">
+        <v>222</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="Q31" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="R31" s="18"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C32" s="3"/>
+      <c r="F32" t="s">
+        <v>228</v>
+      </c>
+      <c r="G32" t="s">
+        <v>224</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>186</v>
-      </c>
-      <c r="E27">
-        <v>0.5</v>
-      </c>
-      <c r="F27">
-        <v>0.5</v>
-      </c>
-      <c r="G27">
-        <v>0.2</v>
-      </c>
-      <c r="H27">
-        <f>SUM(E27:G27)</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C28" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D28" t="s">
-        <v>187</v>
-      </c>
-      <c r="F28">
-        <v>0.5</v>
-      </c>
-      <c r="G28">
-        <v>0.2</v>
-      </c>
-      <c r="H28">
-        <f t="shared" ref="H28:H34" si="0">SUM(E28:G28)</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C29" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D29" t="s">
-        <v>187</v>
-      </c>
-      <c r="F29">
-        <v>0.5</v>
-      </c>
-      <c r="G29">
-        <v>0.2</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="0"/>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" t="s">
-        <v>188</v>
-      </c>
-      <c r="F30">
-        <v>0.2</v>
-      </c>
-      <c r="G30">
-        <v>0.2</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E31">
-        <v>0.5</v>
-      </c>
-      <c r="F31">
-        <v>0.2</v>
-      </c>
-      <c r="G31">
-        <v>0.2</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="0"/>
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C32" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" t="s">
-        <v>189</v>
-      </c>
-      <c r="F32">
-        <v>0.2</v>
-      </c>
-      <c r="G32">
-        <v>0.2</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C33" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" t="s">
-        <v>186</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0.2</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="0"/>
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C34" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" t="s">
-        <v>186</v>
-      </c>
-      <c r="E34">
-        <v>0.5</v>
-      </c>
-      <c r="F34">
-        <v>0.5</v>
-      </c>
-      <c r="G34">
-        <v>0.2</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G35" t="s">
-        <v>193</v>
-      </c>
-      <c r="H35">
-        <f>INT(SUM(H27:H34))</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G36" t="s">
-        <v>195</v>
-      </c>
-      <c r="H36" s="7">
-        <v>44298</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G37" t="s">
-        <v>196</v>
-      </c>
-      <c r="H37" s="4">
-        <f>H36+H35*7</f>
-        <v>44361</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="Q32" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="R32" s="18"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C33" s="3"/>
+      <c r="E33" t="s">
+        <v>216</v>
+      </c>
+      <c r="F33" t="s">
+        <v>229</v>
+      </c>
+      <c r="G33" t="s">
+        <v>224</v>
+      </c>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="21"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C34" s="3"/>
+      <c r="Q34" s="15"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
   </sheetData>

--- a/doc/progress_tracker_2021.xlsx
+++ b/doc/progress_tracker_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaker\Documents\Thesis\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51F7EDE-D249-4023-AC2C-67E79E46926A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0439A534-12A9-43B0-80E4-E8FA533B25B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="248">
   <si>
     <t>Section</t>
   </si>
@@ -642,9 +642,6 @@
   </si>
   <si>
     <t>Final edits</t>
-  </si>
-  <si>
-    <t>Part</t>
   </si>
   <si>
     <t>Draft</t>
@@ -879,7 +876,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -889,12 +886,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,8 +1019,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1038,9 +1028,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1378,7 +1369,7 @@
       </c>
       <c r="C1" s="4">
         <f ca="1">TODAY()</f>
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="D1" t="s">
         <v>177</v>
@@ -1393,11 +1384,11 @@
       </c>
       <c r="G2">
         <f ca="1">C1-C2</f>
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H2">
         <f ca="1">0.8*G2</f>
-        <v>107.2</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1410,7 +1401,7 @@
       </c>
       <c r="D3">
         <f ca="1">C3-C1</f>
-        <v>-22</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1498,7 +1489,7 @@
       </c>
       <c r="J7" s="6">
         <f t="shared" ref="J7:J14" ca="1" si="4">D7-TODAY()</f>
-        <v>-127</v>
+        <v>-128</v>
       </c>
       <c r="K7" t="s">
         <v>130</v>
@@ -1540,7 +1531,7 @@
       </c>
       <c r="J8" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>-70</v>
+        <v>-71</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1577,7 +1568,7 @@
       </c>
       <c r="J9" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>-49</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1614,7 +1605,7 @@
       </c>
       <c r="J10" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>-42</v>
+        <v>-43</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1651,7 +1642,7 @@
       </c>
       <c r="J11" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>-35</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1688,7 +1679,7 @@
       </c>
       <c r="J12" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>-31</v>
+        <v>-32</v>
       </c>
       <c r="K12" t="s">
         <v>129</v>
@@ -1731,7 +1722,7 @@
       </c>
       <c r="J13" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>-29</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1765,7 +1756,7 @@
       </c>
       <c r="J14" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>-22</v>
+        <v>-23</v>
       </c>
     </row>
   </sheetData>
@@ -1783,7 +1774,7 @@
   <dimension ref="A2:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1808,9 +1799,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>182</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1818,22 +1807,22 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>31</v>
@@ -1849,8 +1838,8 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="12"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="11"/>
       <c r="K4">
         <v>0</v>
       </c>
@@ -1870,7 +1859,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <v>1</v>
       </c>
       <c r="L5" t="s">
@@ -1888,7 +1877,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <v>2</v>
       </c>
       <c r="L6" t="s">
@@ -1903,11 +1892,11 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="23"/>
-      <c r="K7" s="10">
+        <v>185</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="22"/>
+      <c r="K7" s="24">
         <v>3</v>
       </c>
       <c r="L7" t="s">
@@ -1922,8 +1911,8 @@
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="22"/>
       <c r="K8" s="8">
         <v>4</v>
       </c>
@@ -1938,10 +1927,10 @@
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="K9" s="23"/>
+      <c r="D9" s="10"/>
+      <c r="K9" s="22"/>
       <c r="L9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1954,11 +1943,11 @@
       <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="23"/>
-      <c r="K10" s="13"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="22"/>
+      <c r="K10" s="12"/>
       <c r="L10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1969,563 +1958,565 @@
       <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="12"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="I12" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="16"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="15"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I14" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="J14" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="K14" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="L14" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="M14" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="M13" s="20" t="s">
+      <c r="N14" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="O14" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="N13" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="O13" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="21"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I14" s="9">
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="20"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I15" s="9">
         <v>31</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J15" s="16">
         <v>1</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K15" s="16">
         <v>2</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L15" s="16">
         <v>3</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M15" s="16">
         <v>4</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N15" s="9">
         <v>5</v>
       </c>
-      <c r="O14" s="17">
+      <c r="O15" s="16">
         <v>6</v>
       </c>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="18"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I15" s="9"/>
-      <c r="J15" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q15" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="R15" s="18"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="17"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I16" s="9"/>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="K16" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
       <c r="N16" s="9"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q16" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="R16" s="18"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q16" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="R16" s="17"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>133</v>
       </c>
       <c r="I17" s="9"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
+      <c r="J17" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
       <c r="N17" s="9"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="18"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q17" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="R17" s="17"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G18" t="s">
-        <v>224</v>
-      </c>
-      <c r="I18" s="9">
-        <v>7</v>
-      </c>
-      <c r="J18" s="17">
-        <v>8</v>
-      </c>
-      <c r="K18" s="17">
-        <v>9</v>
-      </c>
-      <c r="L18" s="17">
-        <v>10</v>
-      </c>
-      <c r="M18" s="17">
-        <v>11</v>
-      </c>
-      <c r="N18" s="9">
-        <v>12</v>
-      </c>
-      <c r="O18" s="17">
-        <v>13</v>
-      </c>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="18"/>
+        <v>223</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="17"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E19" t="s">
+        <v>195</v>
+      </c>
+      <c r="F19" t="s">
         <v>196</v>
       </c>
-      <c r="F19" t="s">
-        <v>197</v>
-      </c>
       <c r="G19" t="s">
-        <v>226</v>
-      </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q19" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="R19" s="18"/>
+        <v>225</v>
+      </c>
+      <c r="I19" s="9">
+        <v>7</v>
+      </c>
+      <c r="J19" s="16">
+        <v>8</v>
+      </c>
+      <c r="K19" s="16">
+        <v>9</v>
+      </c>
+      <c r="L19" s="16">
+        <v>10</v>
+      </c>
+      <c r="M19" s="16">
+        <v>11</v>
+      </c>
+      <c r="N19" s="9">
+        <v>12</v>
+      </c>
+      <c r="O19" s="16">
+        <v>13</v>
+      </c>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="17"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E20" t="s">
         <v>127</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I20" s="9"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
       <c r="N20" s="9"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q20" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="R20" s="18"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q20" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="R20" s="17"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E21" t="s">
+        <v>197</v>
+      </c>
+      <c r="F21" t="s">
         <v>198</v>
       </c>
-      <c r="F21" t="s">
-        <v>199</v>
-      </c>
       <c r="G21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I21" s="9"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
       <c r="N21" s="9"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="18"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q21" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="R21" s="17"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
+        <v>199</v>
+      </c>
+      <c r="F22" t="s">
         <v>200</v>
       </c>
-      <c r="F22" t="s">
-        <v>201</v>
-      </c>
       <c r="G22" t="s">
-        <v>222</v>
-      </c>
-      <c r="I22" s="9">
-        <v>14</v>
-      </c>
-      <c r="J22" s="17">
-        <v>15</v>
-      </c>
-      <c r="K22" s="17">
-        <v>16</v>
-      </c>
-      <c r="L22" s="17">
-        <v>17</v>
-      </c>
-      <c r="M22" s="17">
-        <v>18</v>
-      </c>
-      <c r="N22" s="9">
-        <v>19</v>
-      </c>
-      <c r="O22" s="17">
-        <v>20</v>
-      </c>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="18"/>
+        <v>221</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="17"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G23" t="s">
-        <v>225</v>
-      </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q23" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="R23" s="18"/>
+        <v>224</v>
+      </c>
+      <c r="I23" s="9">
+        <v>14</v>
+      </c>
+      <c r="J23" s="16">
+        <v>15</v>
+      </c>
+      <c r="K23" s="16">
+        <v>16</v>
+      </c>
+      <c r="L23" s="16">
+        <v>17</v>
+      </c>
+      <c r="M23" s="16">
+        <v>18</v>
+      </c>
+      <c r="N23" s="9">
+        <v>19</v>
+      </c>
+      <c r="O23" s="16">
+        <v>20</v>
+      </c>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="17"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>26</v>
       </c>
       <c r="F24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I24" s="9"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
       <c r="N24" s="9"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q24" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="R24" s="18"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q24" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="R24" s="17"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I25" s="9"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
       <c r="N25" s="9"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="R25" s="18"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q25" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="R25" s="17"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="I26" s="9">
+      <c r="I26" s="9"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="R26" s="17"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I27" s="9">
         <v>21</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J27" s="16">
         <v>22</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K27" s="16">
         <v>23</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L27" s="16">
         <v>24</v>
       </c>
-      <c r="M26" s="17">
+      <c r="M27" s="16">
         <v>25</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N27" s="9">
         <v>26</v>
       </c>
-      <c r="O26" s="17">
+      <c r="O27" s="16">
         <v>27</v>
       </c>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="18"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I27" s="9"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q27" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="R27" s="18"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="17"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E28" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I28" s="9"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
       <c r="N28" s="9"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q28" s="17" t="s">
+      <c r="O28" s="16"/>
+      <c r="P28" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q28" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="R28" s="18"/>
+      <c r="R28" s="17"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E29" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I29" s="9"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
       <c r="N29" s="9"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="18"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q29" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="R29" s="17"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G30" t="s">
-        <v>226</v>
-      </c>
-      <c r="I30" s="9">
-        <v>28</v>
-      </c>
-      <c r="J30" s="17">
-        <v>29</v>
-      </c>
-      <c r="K30" s="17">
-        <v>30</v>
-      </c>
-      <c r="L30" s="17">
-        <v>1</v>
-      </c>
-      <c r="M30" s="17">
-        <v>2</v>
-      </c>
-      <c r="N30" s="9">
-        <v>3</v>
-      </c>
-      <c r="O30" s="17">
-        <v>4</v>
-      </c>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="18"/>
+        <v>225</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="17"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G31" t="s">
-        <v>222</v>
-      </c>
-      <c r="I31" s="9"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q31" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="R31" s="18"/>
+        <v>221</v>
+      </c>
+      <c r="I31" s="9">
+        <v>28</v>
+      </c>
+      <c r="J31" s="16">
+        <v>29</v>
+      </c>
+      <c r="K31" s="16">
+        <v>30</v>
+      </c>
+      <c r="L31" s="16">
+        <v>1</v>
+      </c>
+      <c r="M31" s="16">
+        <v>2</v>
+      </c>
+      <c r="N31" s="9">
+        <v>3</v>
+      </c>
+      <c r="O31" s="16">
+        <v>4</v>
+      </c>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="17"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C32" s="3"/>
       <c r="F32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I32" s="9"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
       <c r="N32" s="9"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q32" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="R32" s="18"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q32" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="R32" s="17"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C33" s="3"/>
       <c r="E33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G33" t="s">
-        <v>224</v>
-      </c>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="21"/>
+        <v>223</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q33" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="R33" s="17"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C34" s="3"/>
-      <c r="Q34" s="15"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="20"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q35" s="14"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H36" s="7"/>

--- a/doc/progress_tracker_2021.xlsx
+++ b/doc/progress_tracker_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaker\Documents\Thesis\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0439A534-12A9-43B0-80E4-E8FA533B25B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188A8600-79EA-4480-AF3B-6DCA620FC896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021" sheetId="9" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="230">
   <si>
     <t>Section</t>
   </si>
@@ -650,203 +650,149 @@
     <t>Finish</t>
   </si>
   <si>
-    <t>Calendar</t>
-  </si>
-  <si>
     <t>Towards a lattice trap</t>
   </si>
   <si>
     <t>Send to S</t>
   </si>
   <si>
-    <t>June goal</t>
-  </si>
-  <si>
-    <t>June stretch goal</t>
-  </si>
-  <si>
-    <t>QD paper</t>
-  </si>
-  <si>
-    <t>Focus:</t>
-  </si>
-  <si>
-    <t>Due:</t>
-  </si>
-  <si>
-    <t>QD paper and apparatus</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>Apparatus</t>
-  </si>
-  <si>
     <t>Send to A</t>
   </si>
   <si>
-    <t>Transitions</t>
-  </si>
-  <si>
-    <t>Send to S&amp;A</t>
-  </si>
-  <si>
-    <t>QD chap</t>
-  </si>
-  <si>
-    <t>send to S&amp;A</t>
-  </si>
-  <si>
-    <t>Resubmit</t>
-  </si>
-  <si>
-    <t>QD paper -&gt; Sean</t>
-  </si>
-  <si>
-    <t>Apparatus -&gt; Andrew</t>
-  </si>
-  <si>
-    <t>lattice &amp; Main works chaps</t>
-  </si>
-  <si>
-    <t>main works chaps -&gt; S &amp; A</t>
-  </si>
-  <si>
-    <t>Lattice &amp; head/tail</t>
-  </si>
-  <si>
-    <t>Lattice chapter -&gt; Sean</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t>Intro/conclusion draft</t>
-  </si>
-  <si>
-    <t>Gameplan</t>
-  </si>
-  <si>
-    <t>Proceed using master June todo</t>
-  </si>
-  <si>
-    <t>Check-off each task, count pomodoros on as estimate of time in</t>
-  </si>
-  <si>
-    <t>Reach goals</t>
-  </si>
-  <si>
     <t>Talk</t>
   </si>
   <si>
-    <t>Tuneout chapter</t>
-  </si>
-  <si>
-    <t>Adjust goals as learning along the way</t>
-  </si>
-  <si>
-    <t>If ahead of goals on June 14th, consider booking talk</t>
-  </si>
-  <si>
-    <t>Lattice &amp; Apparatus chaps, half day on talk scoping</t>
-  </si>
-  <si>
     <t>S reply</t>
   </si>
   <si>
     <t>A reply</t>
   </si>
   <si>
-    <t>Week 4</t>
-  </si>
-  <si>
-    <t>Week 3</t>
-  </si>
-  <si>
-    <t>Week 5</t>
-  </si>
-  <si>
-    <t>Week 1</t>
-  </si>
-  <si>
-    <t>Week 2</t>
-  </si>
-  <si>
-    <t>Goal due</t>
-  </si>
-  <si>
     <t>Deliver</t>
   </si>
   <si>
-    <t>Structured notes/pre-edit</t>
-  </si>
-  <si>
-    <t>July goals</t>
-  </si>
-  <si>
-    <t>Mark tasks done in calendar?</t>
-  </si>
-  <si>
-    <t>Review</t>
-  </si>
-  <si>
-    <t>Practise</t>
-  </si>
-  <si>
-    <t>Submit</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>Mostly fig changes in apparatus</t>
-  </si>
-  <si>
-    <t>Some minor text updates</t>
-  </si>
-  <si>
-    <t>MCP fig, laser cooling, TCP lock loop</t>
-  </si>
-  <si>
-    <t>DONE</t>
-  </si>
-  <si>
-    <t>Second goal:</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>Th</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>SENT CH2</t>
+    <t>Chapter todo</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Wait</t>
+  </si>
+  <si>
+    <t>S revise</t>
+  </si>
+  <si>
+    <t>A revise</t>
+  </si>
+  <si>
+    <t>Total time</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total w days</t>
+  </si>
+  <si>
+    <t>Abstract/Conclusion</t>
+  </si>
+  <si>
+    <t>Test &amp; revise</t>
+  </si>
+  <si>
+    <t>Next task</t>
+  </si>
+  <si>
+    <t>Revise for A</t>
+  </si>
+  <si>
+    <t>Final review</t>
+  </si>
+  <si>
+    <t>With?</t>
+  </si>
+  <si>
+    <t>Jake</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
+    <t>Draft for S</t>
+  </si>
+  <si>
+    <t>Pending A</t>
+  </si>
+  <si>
+    <t>Pending S</t>
+  </si>
+  <si>
+    <t>Done by</t>
+  </si>
+  <si>
+    <t>End August</t>
+  </si>
+  <si>
+    <t>2x revise</t>
+  </si>
+  <si>
+    <t>Further time</t>
+  </si>
+  <si>
+    <t>1 revision</t>
+  </si>
+  <si>
+    <t>Further tasks</t>
+  </si>
+  <si>
+    <t>1-2x revise</t>
+  </si>
+  <si>
+    <t>Draft for test</t>
+  </si>
+  <si>
+    <t>Revise and deliver</t>
+  </si>
+  <si>
+    <t>Inc weekend</t>
+  </si>
+  <si>
+    <t>Proof</t>
+  </si>
+  <si>
+    <t>Task list</t>
+  </si>
+  <si>
+    <t>Countdown</t>
+  </si>
+  <si>
+    <t>Dates starting</t>
+  </si>
+  <si>
+    <t>Done on time</t>
+  </si>
+  <si>
+    <t>Done faster</t>
+  </si>
+  <si>
+    <t>Done slower</t>
+  </si>
+  <si>
+    <t>Time spent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -875,8 +821,15 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -913,8 +866,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -922,91 +911,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1016,22 +925,28 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1369,7 +1284,7 @@
       </c>
       <c r="C1" s="4">
         <f ca="1">TODAY()</f>
-        <v>44357</v>
+        <v>44411</v>
       </c>
       <c r="D1" t="s">
         <v>177</v>
@@ -1384,11 +1299,11 @@
       </c>
       <c r="G2">
         <f ca="1">C1-C2</f>
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="H2">
         <f ca="1">0.8*G2</f>
-        <v>108</v>
+        <v>151.20000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1401,7 +1316,7 @@
       </c>
       <c r="D3">
         <f ca="1">C3-C1</f>
-        <v>-23</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1489,7 +1404,7 @@
       </c>
       <c r="J7" s="6">
         <f t="shared" ref="J7:J14" ca="1" si="4">D7-TODAY()</f>
-        <v>-128</v>
+        <v>-182</v>
       </c>
       <c r="K7" t="s">
         <v>130</v>
@@ -1531,7 +1446,7 @@
       </c>
       <c r="J8" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>-71</v>
+        <v>-125</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1568,7 +1483,7 @@
       </c>
       <c r="J9" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>-50</v>
+        <v>-104</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1605,7 +1520,7 @@
       </c>
       <c r="J10" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>-43</v>
+        <v>-97</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1642,7 +1557,7 @@
       </c>
       <c r="J11" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>-36</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1679,7 +1594,7 @@
       </c>
       <c r="J12" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>-32</v>
+        <v>-86</v>
       </c>
       <c r="K12" t="s">
         <v>129</v>
@@ -1722,7 +1637,7 @@
       </c>
       <c r="J13" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>-30</v>
+        <v>-84</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1756,7 +1671,7 @@
       </c>
       <c r="J14" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>-23</v>
+        <v>-77</v>
       </c>
     </row>
   </sheetData>
@@ -1771,10 +1686,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:R41"/>
+  <dimension ref="A2:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1782,10 +1697,10 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.140625" customWidth="1"/>
     <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -1810,731 +1725,972 @@
         <v>182</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="11"/>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="K5" s="10">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>179</v>
-      </c>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="K6" s="10">
-        <v>2</v>
-      </c>
-      <c r="L6" t="s">
-        <v>180</v>
-      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="22"/>
-      <c r="K7" s="24">
-        <v>3</v>
-      </c>
-      <c r="L7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8">
+      <c r="C8" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="22"/>
-      <c r="K8" s="8">
-        <v>4</v>
-      </c>
-      <c r="L8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="K9" s="22"/>
-      <c r="L9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="D10" s="20"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>7</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="22"/>
-      <c r="K10" s="12"/>
-      <c r="L10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="11"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="I13" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="15"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I14" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="M14" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="N14" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="O14" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="20"/>
+      <c r="C14" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="7">
+        <v>44403</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I15" s="9">
-        <v>31</v>
-      </c>
-      <c r="J15" s="16">
-        <v>1</v>
-      </c>
-      <c r="K15" s="16">
-        <v>2</v>
-      </c>
-      <c r="L15" s="16">
-        <v>3</v>
-      </c>
-      <c r="M15" s="16">
-        <v>4</v>
-      </c>
-      <c r="N15" s="9">
-        <v>5</v>
-      </c>
-      <c r="O15" s="16">
-        <v>6</v>
-      </c>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="17"/>
+      <c r="C15" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" s="26">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="18">
+        <f t="shared" ref="J17:J24" si="0">I17+G17+E17</f>
+        <v>1</v>
+      </c>
+      <c r="K17" s="11"/>
+      <c r="L17" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="11"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B18" s="9">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E18" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="K18" s="11"/>
+      <c r="L18" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" s="9">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E19" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="K19" s="11"/>
+      <c r="L19" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="14">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="8">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G21" s="3">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I21" s="18">
+        <v>2</v>
+      </c>
+      <c r="J21" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="12"/>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="G22" s="26">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I22" s="18">
+        <v>1</v>
+      </c>
+      <c r="J22" s="18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+      <c r="C23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" s="3">
+        <v>20</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G23" s="3">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I23" s="18">
+        <v>1</v>
+      </c>
+      <c r="J23" s="18">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I24" s="19">
+        <v>2</v>
+      </c>
+      <c r="J24" s="18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E25" s="3">
+        <v>3</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I25" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="J25" s="18">
+        <f>I25+G25+E25</f>
+        <v>4.5</v>
+      </c>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G26" s="3">
+        <v>3</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I26" s="19">
+        <v>1</v>
+      </c>
+      <c r="J26" s="18">
+        <f>I26+G26+E26</f>
+        <v>7</v>
+      </c>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I27" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="J27" s="19">
+        <f>SUM(J17:J26)</f>
+        <v>50.5</v>
+      </c>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I28" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="J28" s="19">
+        <f>J27*(7/5)</f>
+        <v>70.699999999999989</v>
+      </c>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J29" s="17"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F31" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="21">
+        <v>44407</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="I31" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="E32" t="s">
+        <v>194</v>
+      </c>
+      <c r="F32" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="G32" s="21">
+        <v>44404</v>
+      </c>
+      <c r="H32" t="s">
+        <v>216</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="G33" s="7">
+        <v>44405</v>
+      </c>
+      <c r="H33" t="s">
+        <v>222</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="E34" t="s">
+        <v>204</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" t="s">
         <v>210</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q16" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="R16" s="17"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="I34" s="11">
+        <v>2</v>
+      </c>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E35" t="s">
+        <v>203</v>
+      </c>
+      <c r="F35" s="6">
+        <v>2</v>
+      </c>
+      <c r="G35" t="s">
         <v>211</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="H35" t="s">
+        <v>214</v>
+      </c>
+      <c r="I35" s="13">
+        <v>7</v>
+      </c>
+      <c r="Q35" s="11"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="E36" t="s">
         <v>194</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q17" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="R17" s="17"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>211</v>
+      </c>
+      <c r="H36" t="s">
+        <v>218</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B37">
         <v>6</v>
       </c>
-      <c r="F18" t="s">
-        <v>182</v>
-      </c>
-      <c r="G18" t="s">
-        <v>223</v>
-      </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="17"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E19" t="s">
-        <v>195</v>
-      </c>
-      <c r="F19" t="s">
-        <v>196</v>
-      </c>
-      <c r="G19" t="s">
-        <v>225</v>
-      </c>
-      <c r="I19" s="9">
+      <c r="C37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F37">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
+        <v>213</v>
+      </c>
+      <c r="H37" t="s">
+        <v>214</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B38">
         <v>7</v>
       </c>
-      <c r="J19" s="16">
+      <c r="C38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F38">
+        <v>0.5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>211</v>
+      </c>
+      <c r="H38" t="s">
+        <v>218</v>
+      </c>
+      <c r="I38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B39">
         <v>8</v>
       </c>
-      <c r="K19" s="16">
-        <v>9</v>
-      </c>
-      <c r="L19" s="16">
-        <v>10</v>
-      </c>
-      <c r="M19" s="16">
-        <v>11</v>
-      </c>
-      <c r="N19" s="9">
-        <v>12</v>
-      </c>
-      <c r="O19" s="16">
-        <v>13</v>
-      </c>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="17"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E20" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20" t="s">
-        <v>186</v>
-      </c>
-      <c r="G20" t="s">
-        <v>222</v>
-      </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q20" s="16" t="s">
+      <c r="C39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39" s="21">
+        <v>44407</v>
+      </c>
+      <c r="H39" t="s">
         <v>218</v>
       </c>
-      <c r="R20" s="17"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E21" t="s">
-        <v>197</v>
-      </c>
-      <c r="F21" t="s">
-        <v>198</v>
-      </c>
-      <c r="G21" t="s">
-        <v>221</v>
-      </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q21" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="R21" s="17"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
-        <v>199</v>
-      </c>
-      <c r="F22" t="s">
-        <v>200</v>
-      </c>
-      <c r="G22" t="s">
-        <v>221</v>
-      </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="17"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E23" t="s">
-        <v>189</v>
-      </c>
-      <c r="F23" t="s">
-        <v>201</v>
-      </c>
-      <c r="G23" t="s">
-        <v>224</v>
-      </c>
-      <c r="I23" s="9">
-        <v>14</v>
-      </c>
-      <c r="J23" s="16">
-        <v>15</v>
-      </c>
-      <c r="K23" s="16">
-        <v>16</v>
-      </c>
-      <c r="L23" s="16">
-        <v>17</v>
-      </c>
-      <c r="M23" s="16">
-        <v>18</v>
-      </c>
-      <c r="N23" s="9">
-        <v>19</v>
-      </c>
-      <c r="O23" s="16">
-        <v>20</v>
-      </c>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="17"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" t="s">
-        <v>186</v>
-      </c>
-      <c r="G24" t="s">
-        <v>223</v>
-      </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q24" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="R24" s="17"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E25" t="s">
-        <v>234</v>
-      </c>
-      <c r="F25" t="s">
-        <v>233</v>
-      </c>
-      <c r="G25" t="s">
-        <v>223</v>
-      </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q25" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="R25" s="17"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="R26" s="17"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I27" s="9">
-        <v>21</v>
-      </c>
-      <c r="J27" s="16">
-        <v>22</v>
-      </c>
-      <c r="K27" s="16">
-        <v>23</v>
-      </c>
-      <c r="L27" s="16">
-        <v>24</v>
-      </c>
-      <c r="M27" s="16">
-        <v>25</v>
-      </c>
-      <c r="N27" s="9">
-        <v>26</v>
-      </c>
-      <c r="O27" s="16">
-        <v>27</v>
-      </c>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="17"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E28" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q28" s="16" t="s">
+      <c r="I39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D40" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="R28" s="17"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E29" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="I29" s="9"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q29" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="R29" s="17"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E30" t="s">
-        <v>214</v>
-      </c>
-      <c r="F30" t="s">
-        <v>231</v>
-      </c>
-      <c r="G30" t="s">
-        <v>225</v>
-      </c>
-      <c r="I30" s="9"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="17"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F31" t="s">
-        <v>232</v>
-      </c>
-      <c r="G31" t="s">
-        <v>221</v>
-      </c>
-      <c r="I31" s="9">
-        <v>28</v>
-      </c>
-      <c r="J31" s="16">
-        <v>29</v>
-      </c>
-      <c r="K31" s="16">
-        <v>30</v>
-      </c>
-      <c r="L31" s="16">
-        <v>1</v>
-      </c>
-      <c r="M31" s="16">
-        <v>2</v>
-      </c>
-      <c r="N31" s="9">
+      <c r="E40" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F40">
         <v>3</v>
       </c>
-      <c r="O31" s="16">
-        <v>4</v>
-      </c>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="17"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C32" s="3"/>
-      <c r="F32" t="s">
-        <v>227</v>
-      </c>
-      <c r="G32" t="s">
-        <v>223</v>
-      </c>
-      <c r="I32" s="9"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q32" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="R32" s="17"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C33" s="3"/>
-      <c r="E33" t="s">
-        <v>215</v>
-      </c>
-      <c r="F33" t="s">
-        <v>228</v>
-      </c>
-      <c r="G33" t="s">
-        <v>223</v>
-      </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q33" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="R33" s="17"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C34" s="3"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="20"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q35" s="14"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H40" s="7"/>
+      <c r="H40" t="s">
+        <v>220</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="F41">
+        <f>SUM(F31:F40)</f>
+        <v>31.5</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="I41">
+        <f>SUM(I31:I40)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C42" s="1"/>
+      <c r="H42" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="I42">
+        <f>I41+F41</f>
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>221</v>
+      </c>
+      <c r="I43">
+        <f>(7/5)*I42</f>
+        <v>72.099999999999994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>133</v>
+      </c>
+      <c r="I44" s="7">
+        <f>D14+ROUNDUP(I43,0)</f>
+        <v>44476</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D13">

--- a/doc/progress_tracker_2021.xlsx
+++ b/doc/progress_tracker_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaker\Documents\Thesis\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188A8600-79EA-4480-AF3B-6DCA620FC896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD60BB44-330A-456B-BEA8-AD585D7A35CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-56820" yWindow="-15540" windowWidth="43200" windowHeight="23535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021" sheetId="9" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="231">
   <si>
     <t>Section</t>
   </si>
@@ -122,12 +122,6 @@
     <t>Transition measurements</t>
   </si>
   <si>
-    <t>Metrology</t>
-  </si>
-  <si>
-    <t>Intro</t>
-  </si>
-  <si>
     <t>Section introduction</t>
   </si>
   <si>
@@ -164,9 +158,6 @@
     <t>Chapter wrap</t>
   </si>
   <si>
-    <t>Many-body</t>
-  </si>
-  <si>
     <t>Quantum depletion</t>
   </si>
   <si>
@@ -638,12 +629,6 @@
     <t>Unstructured text/notes</t>
   </si>
   <si>
-    <t>Stuctured notes</t>
-  </si>
-  <si>
-    <t>Final edits</t>
-  </si>
-  <si>
     <t>Draft</t>
   </si>
   <si>
@@ -680,9 +665,6 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Wait</t>
-  </si>
-  <si>
     <t>S revise</t>
   </si>
   <si>
@@ -698,21 +680,9 @@
     <t>Total w days</t>
   </si>
   <si>
-    <t>Abstract/Conclusion</t>
-  </si>
-  <si>
-    <t>Test &amp; revise</t>
-  </si>
-  <si>
     <t>Next task</t>
   </si>
   <si>
-    <t>Revise for A</t>
-  </si>
-  <si>
-    <t>Final review</t>
-  </si>
-  <si>
     <t>With?</t>
   </si>
   <si>
@@ -722,9 +692,6 @@
     <t>Andrew</t>
   </si>
   <si>
-    <t>Sean</t>
-  </si>
-  <si>
     <t>Draft for S</t>
   </si>
   <si>
@@ -746,15 +713,9 @@
     <t>Further time</t>
   </si>
   <si>
-    <t>1 revision</t>
-  </si>
-  <si>
     <t>Further tasks</t>
   </si>
   <si>
-    <t>1-2x revise</t>
-  </si>
-  <si>
     <t>Draft for test</t>
   </si>
   <si>
@@ -786,13 +747,55 @@
   </si>
   <si>
     <t>Time spent</t>
+  </si>
+  <si>
+    <t>Time budget</t>
+  </si>
+  <si>
+    <t>Next tasks</t>
+  </si>
+  <si>
+    <t>Wait, revise</t>
+  </si>
+  <si>
+    <t>Final revision</t>
+  </si>
+  <si>
+    <t>Final proof</t>
+  </si>
+  <si>
+    <t>&lt;-- Generous time budget for final proofread</t>
+  </si>
+  <si>
+    <t>Revise</t>
+  </si>
+  <si>
+    <t>Revisions</t>
+  </si>
+  <si>
+    <t>Revise wrt refs</t>
+  </si>
+  <si>
+    <t>final comments</t>
+  </si>
+  <si>
+    <t>Rough draft</t>
+  </si>
+  <si>
+    <t>Initial est. date</t>
+  </si>
+  <si>
+    <t>Running est. date</t>
+  </si>
+  <si>
+    <t>Chapters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -828,8 +831,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -857,12 +869,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,12 +932,10 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -939,14 +943,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1280,35 +1286,35 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C1" s="4">
         <f ca="1">TODAY()</f>
-        <v>44411</v>
+        <v>44428</v>
       </c>
       <c r="D1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C2" s="5">
         <v>44222</v>
       </c>
       <c r="G2">
         <f ca="1">C1-C2</f>
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="H2">
         <f ca="1">0.8*G2</f>
-        <v>151.20000000000002</v>
+        <v>164.8</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C3" s="4">
         <f>D14</f>
@@ -1316,12 +1322,12 @@
       </c>
       <c r="D3">
         <f ca="1">C3-C1</f>
-        <v>-77</v>
+        <v>-94</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C4" s="4">
         <f>F14</f>
@@ -1340,34 +1346,34 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1375,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -1404,13 +1410,13 @@
       </c>
       <c r="J7" s="6">
         <f t="shared" ref="J7:J14" ca="1" si="4">D7-TODAY()</f>
-        <v>-182</v>
+        <v>-199</v>
       </c>
       <c r="K7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1418,7 +1424,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -1446,7 +1452,7 @@
       </c>
       <c r="J8" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>-125</v>
+        <v>-142</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1454,7 +1460,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C9">
         <v>15</v>
@@ -1483,7 +1489,7 @@
       </c>
       <c r="J9" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>-104</v>
+        <v>-121</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1491,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -1520,7 +1526,7 @@
       </c>
       <c r="J10" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>-97</v>
+        <v>-114</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1528,7 +1534,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -1557,7 +1563,7 @@
       </c>
       <c r="J11" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>-90</v>
+        <v>-107</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1565,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -1594,13 +1600,13 @@
       </c>
       <c r="J12" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>-86</v>
+        <v>-103</v>
       </c>
       <c r="K12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1608,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1637,12 +1643,12 @@
       </c>
       <c r="J13" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>-84</v>
+        <v>-101</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -1671,7 +1677,7 @@
       </c>
       <c r="J14" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>-77</v>
+        <v>-94</v>
       </c>
     </row>
   </sheetData>
@@ -1686,22 +1692,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:R44"/>
+  <dimension ref="A2:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" customWidth="1"/>
     <col min="12" max="12" width="10.140625" customWidth="1"/>
     <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5703125" customWidth="1"/>
@@ -1710,34 +1719,36 @@
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
+      <c r="B3" s="30" t="s">
+        <v>230</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1745,15 +1756,20 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="B5">
         <v>1</v>
       </c>
@@ -1763,15 +1779,20 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="22"/>
+      <c r="G5" s="20"/>
+      <c r="K5" s="9">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -1779,34 +1800,52 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
+      <c r="K6" s="22">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="K7" s="12">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="K8" s="8">
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
       <c r="B9">
         <v>5</v>
       </c>
@@ -1817,715 +1856,647 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="20"/>
+        <v>17</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="J10" s="28"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="B11">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
       <c r="B12">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
+        <v>23</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="18"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C14" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D14" s="7">
-        <v>44403</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
+      <c r="B14" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
+        <v>212</v>
+      </c>
+      <c r="D15" s="7">
+        <v>44403</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="I16" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="J16" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="E17" s="26">
+        <v>119</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="E17" s="24">
         <v>1</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="18">
-        <f t="shared" ref="J17:J24" si="0">I17+G17+E17</f>
+      <c r="F17" s="3">
         <v>1</v>
       </c>
-      <c r="K17" s="11"/>
-      <c r="L17" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="11"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>179</v>
-      </c>
-      <c r="B18" s="9">
+      <c r="G17" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="16">
+        <f>E17+H17</f>
         <v>1</v>
       </c>
+      <c r="J17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="10"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="E18" s="26">
+      <c r="D18" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" s="24">
         <v>0.5</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="F18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H18" s="16">
         <v>1</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18">
-        <f t="shared" si="0"/>
+      <c r="I18" s="16">
+        <f t="shared" ref="I18:I26" si="0">E18+H18</f>
         <v>1.5</v>
       </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>180</v>
-      </c>
-      <c r="B19" s="9">
-        <v>2</v>
-      </c>
+      <c r="J18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="E19" s="26">
+        <v>134</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="E19" s="24">
         <v>0.5</v>
       </c>
-      <c r="F19" s="3"/>
+      <c r="F19" s="3">
+        <v>0.5</v>
+      </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18">
+      <c r="H19" s="16"/>
+      <c r="I19" s="16">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>181</v>
-      </c>
-      <c r="B20" s="14">
+      <c r="J19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" s="24">
         <v>3</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>196</v>
+      <c r="F20" s="29">
+        <v>0</v>
       </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18">
+      <c r="H20" s="16">
+        <v>0</v>
+      </c>
+      <c r="I20" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="8">
+        <v>3</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E21" s="24">
+        <v>5</v>
+      </c>
+      <c r="F21" s="29">
         <v>4</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G21" s="3">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="I21" s="18">
+      <c r="G21" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H21" s="16">
         <v>2</v>
       </c>
-      <c r="J21" s="18">
+      <c r="I21" s="16">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="G22" s="26">
+        <v>190</v>
+      </c>
+      <c r="E22" s="24">
         <v>1</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="I22" s="18">
+      <c r="F22" s="24"/>
+      <c r="G22" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H22" s="16">
         <v>1</v>
       </c>
-      <c r="J22" s="18">
+      <c r="I22" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E23" s="3">
         <v>20</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G23" s="3">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="I23" s="18">
+      <c r="F23" s="3">
+        <v>10</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H23" s="16">
         <v>1</v>
       </c>
-      <c r="J23" s="18">
+      <c r="I23" s="16">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E24" s="24">
+        <v>2</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H24" s="17">
+        <v>2</v>
+      </c>
+      <c r="I24" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="I24" s="19">
-        <v>2</v>
-      </c>
-      <c r="J24" s="18">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C25" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="D25" s="3" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E25" s="3">
         <v>3</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G25" s="3">
+      <c r="F25" s="3">
         <v>1</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="I25" s="18">
+      <c r="G25" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H25" s="16">
         <v>0.5</v>
       </c>
-      <c r="J25" s="18">
-        <f>I25+G25+E25</f>
-        <v>4.5</v>
-      </c>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I25" s="16">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E26">
         <v>3</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="F26" s="3">
         <v>3</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="I26" s="19">
+      <c r="G26" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H26" s="17">
         <v>1</v>
       </c>
-      <c r="J26" s="18">
-        <f>I26+G26+E26</f>
-        <v>7</v>
-      </c>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I27" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="J27" s="19">
-        <f>SUM(J17:J26)</f>
-        <v>50.5</v>
-      </c>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I28" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="J28" s="19">
-        <f>J27*(7/5)</f>
-        <v>70.699999999999989</v>
-      </c>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C29" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J29" s="17"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I26" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="H27" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="I27" s="17">
+        <f>SUM(I17:I26)</f>
+        <v>47.5</v>
+      </c>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="H28" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="I28" s="17">
+        <f>I27*(7/5)</f>
+        <v>66.5</v>
+      </c>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="H29" t="s">
+        <v>228</v>
+      </c>
+      <c r="I29" s="7">
+        <f>D15+I28</f>
+        <v>44469.5</v>
+      </c>
+      <c r="J29" s="15"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I30" s="16" t="s">
-        <v>215</v>
+      <c r="I30" s="14" t="s">
+        <v>204</v>
       </c>
       <c r="J30" s="3"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>208</v>
+        <v>119</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>197</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F31" s="30">
+        <v>219</v>
+      </c>
+      <c r="F31" s="28">
         <v>0.5</v>
       </c>
-      <c r="G31" s="21">
-        <v>44407</v>
-      </c>
+      <c r="G31" s="19"/>
       <c r="H31" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="I31" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="I31" s="10">
+        <v>2</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="23" t="s">
-        <v>207</v>
+      <c r="D32" s="21" t="s">
+        <v>197</v>
       </c>
       <c r="E32" t="s">
-        <v>194</v>
-      </c>
-      <c r="F32" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="G32" s="21">
-        <v>44404</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="F32" s="18">
+        <v>1</v>
+      </c>
+      <c r="G32" s="19"/>
       <c r="H32" t="s">
-        <v>216</v>
-      </c>
-      <c r="I32" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
+        <v>209</v>
+      </c>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="G33" s="7">
-        <v>44405</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="G33" s="7"/>
       <c r="H33" t="s">
-        <v>222</v>
-      </c>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
+        <v>209</v>
+      </c>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="E34" t="s">
-        <v>204</v>
+        <v>139</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>209</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>210</v>
-      </c>
-      <c r="I34" s="11">
-        <v>2</v>
-      </c>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
+        <v>199</v>
+      </c>
+      <c r="H34" t="s">
+        <v>209</v>
+      </c>
+      <c r="I34" s="10">
+        <v>0</v>
+      </c>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>4</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>208</v>
+        <v>179</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>197</v>
       </c>
       <c r="E35" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="F35" s="6">
         <v>2</v>
       </c>
-      <c r="G35" t="s">
-        <v>211</v>
-      </c>
       <c r="H35" t="s">
-        <v>214</v>
-      </c>
-      <c r="I35" s="13">
-        <v>7</v>
-      </c>
-      <c r="Q35" s="11"/>
+        <v>209</v>
+      </c>
+      <c r="I35" s="11"/>
+      <c r="Q35" s="10"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B36">
@@ -2534,23 +2505,17 @@
       <c r="C36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="23" t="s">
-        <v>207</v>
+      <c r="D36" s="21" t="s">
+        <v>197</v>
       </c>
       <c r="E36" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36" t="s">
-        <v>211</v>
+        <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>218</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -2558,25 +2523,25 @@
         <v>6</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>206</v>
+        <v>17</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>196</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="F37">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="H37" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="I37">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -2584,25 +2549,25 @@
         <v>7</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="F38">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="G38" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="H38" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="I38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
@@ -2610,42 +2575,42 @@
         <v>8</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>206</v>
+        <v>23</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>196</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="F39">
-        <v>3</v>
-      </c>
-      <c r="G39" s="21">
+        <v>2</v>
+      </c>
+      <c r="G39" s="19">
         <v>44407</v>
       </c>
       <c r="H39" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="I39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D40" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="F40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H40" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="I40">
         <v>3</v>
@@ -2656,40 +2621,55 @@
       <c r="C41" s="1"/>
       <c r="F41">
         <f>SUM(F31:F40)</f>
-        <v>31.5</v>
+        <v>26.5</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41">
         <f>SUM(I31:I40)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C42" s="1"/>
       <c r="H42" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I42">
         <f>I41+F41</f>
-        <v>51.5</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H43" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="I43">
         <f>(7/5)*I42</f>
-        <v>72.099999999999994</v>
+        <v>51.099999999999994</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H44" t="s">
-        <v>133</v>
+        <v>229</v>
       </c>
       <c r="I44" s="7">
-        <f>D14+ROUNDUP(I43,0)</f>
-        <v>44476</v>
+        <f>D15+ROUNDUP(I43,0)</f>
+        <v>44455</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="27" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2737,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -2749,7 +2729,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2757,19 +2737,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2781,13 +2761,13 @@
       </c>
       <c r="B3" s="1"/>
       <c r="D3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -2796,13 +2776,13 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="D4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -2811,13 +2791,13 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -2828,16 +2808,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I6">
         <v>4</v>
@@ -2845,10 +2825,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2857,7 +2837,7 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2866,7 +2846,7 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2875,7 +2855,7 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="D10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2885,7 +2865,7 @@
       <c r="A11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2894,10 +2874,10 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="C12" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2906,7 +2886,7 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="D13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2915,7 +2895,7 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="D14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2925,7 +2905,7 @@
       <c r="A15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2935,7 +2915,7 @@
       <c r="A16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2945,7 +2925,7 @@
       <c r="A17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2954,7 +2934,7 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="D18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2964,10 +2944,10 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="C19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2976,7 +2956,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="D20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2985,7 +2965,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="D21" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2994,7 +2974,7 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="D22" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -3003,10 +2983,10 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="C23" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D23" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3015,7 +2995,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="D24" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -3025,7 +3005,7 @@
       <c r="A25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -3146,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -3158,18 +3138,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3178,40 +3158,40 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3220,19 +3200,19 @@
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H6">
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3243,10 +3223,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3255,37 +3235,37 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3294,39 +3274,39 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H12">
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -3334,21 +3314,21 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3357,52 +3337,52 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3410,13 +3390,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -3425,28 +3405,28 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -3455,10 +3435,10 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -3467,10 +3447,10 @@
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -3478,10 +3458,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -3489,13 +3469,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="D34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -3503,41 +3483,41 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D39" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -3545,12 +3525,12 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3672,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -3684,18 +3664,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3704,15 +3684,15 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3721,13 +3701,13 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3736,7 +3716,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -3744,13 +3724,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3759,22 +3739,22 @@
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3783,22 +3763,22 @@
         <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3807,16 +3787,16 @@
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3825,10 +3805,10 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3837,37 +3817,37 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3876,7 +3856,7 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3887,59 +3867,59 @@
         <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="D21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -3948,16 +3928,16 @@
         <v>3</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3966,10 +3946,10 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -3978,43 +3958,43 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="D27" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -4023,13 +4003,13 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="D31" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -4037,10 +4017,10 @@
         <v>7</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -4049,7 +4029,7 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -4057,7 +4037,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -4065,7 +4045,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -4077,10 +4057,10 @@
         <v>7</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D52" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -4090,7 +4070,7 @@
       <c r="A53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -4099,7 +4079,7 @@
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="D54" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -4108,7 +4088,7 @@
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="D55" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -4134,7 +4114,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B1">
         <v>13</v>

--- a/doc/progress_tracker_2021.xlsx
+++ b/doc/progress_tracker_2021.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaker\Documents\Thesis\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC85A68-7F0E-47C7-BD20-83288268A266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA6680F-A004-4A9A-AFB4-31E30529593A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Minor corrections" sheetId="10" r:id="rId1"/>
-    <sheet name="Summary" sheetId="1" r:id="rId2"/>
-    <sheet name="2021" sheetId="9" r:id="rId3"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="2021" sheetId="9" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -48,7 +50,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>jaker:</t>
         </r>
@@ -57,7 +59,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 NB: Originally made a 20-day weekend inclusive deadline for the jan 26. Now nudgeting days spent on revision before submission</t>
@@ -72,7 +74,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>jaker:</t>
         </r>
@@ -81,7 +83,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Revision absorbed into Intro</t>
@@ -93,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="90">
   <si>
     <t>Chapter</t>
   </si>
@@ -363,256 +365,6 @@
   </si>
   <si>
     <t>Review order switched</t>
-  </si>
-  <si>
-    <t>Spectrometry --- &gt; spectrometry.</t>
-  </si>
-  <si>
-    <t>Page numbering starts on “0” instead of “1”, seems odd.</t>
-  </si>
-  <si>
-    <t>Footnote 3, “Planck” not capitalised.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> extra space after He*.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> “Hydrogen”, “Helium” written with caps, should be lowercase.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> footnote – “we consider -- Doubly” --&gt; “we consider. Doubly…”.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> “coefficiencts” misspelled.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> typo in GPE, should be “i \hbar” on left, rather than “-\hbar”.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> “bell-type” --&gt; “Bell-type”.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> “413nm” --&gt; “413 nm”.</t>
-  </si>
-  <si>
-    <t>Eq. (2.2), the subscript “lab” should not be italicised.</t>
-  </si>
-  <si>
-    <t>Missing space between number and unit in “2mm” and “1cm”.</t>
-  </si>
-  <si>
-    <t>In the footnote, “analogoous” misspelled.</t>
-  </si>
-  <si>
-    <t>Bad latex reference resulting in “??” partway down the page.</t>
-  </si>
-  <si>
-    <t>“19.8eV” missing the space before the unit.</t>
-  </si>
-  <si>
-    <t>Latex float issue(?) leading to a large space in the page.</t>
-  </si>
-  <si>
-    <t>similarly, a large space here.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> “section 5.3gives” missing a space</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> “smallest precision” to “highest precision”</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ref. [18], “Bose-einstein”; Ref. [19] “structure of scince”</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ref. [63], “evidence,” should be capitalised, “condesnation”</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Refs. [174, 175] duplicate.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Refs. [187, 188] duplicate.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Refs. [229, 230] duplicate.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ref [237] “87RbD-line” missing space.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ref. [250], latex typo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ref. [351], typo “Optics COmmunications”; Ref. [353] formatting issues</t>
-  </si>
-  <si>
-    <t>line 5, “Bell-type” typo</t>
-  </si>
-  <si>
-    <t>line 4, “ molecular pumps” (extra fullstop)</t>
-  </si>
-  <si>
-    <t>line 5, fullstop missing</t>
-  </si>
-  <si>
-    <t>line 13, LVIS should be defined.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> line “…chapters ??..”</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> “a.k.a.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> “faraday” should be “Faraday”</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Is ETP the name of the manufacturer of the part?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> “..1 0 ms delay ..” extra space in 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> “Unforunately..”, second para, second line, typo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> “dipole fibers” is too colloquial.</t>
-  </si>
-  <si>
-    <t>“…photon scattering signal…” what is it?</t>
-  </si>
-  <si>
-    <t>The RF linewidth of the crystal oscillator of 300kHz sounds excessively large.</t>
-  </si>
-  <si>
-    <t>uK in Roman font</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> \chi^2/dof ~ 1 needs a space.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> “ 1140(20) MHz” should not italicized</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> “also” twice..</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> “…alternative approach presented in section 6.2.1”. It is section 6.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> “especially” spelt wrong.</t>
-  </si>
-  <si>
-    <t>the significance of p-value should be stated.</t>
-  </si>
-  <si>
-    <t>Page</t>
-  </si>
-  <si>
-    <t>Examiner comment</t>
-  </si>
-  <si>
-    <t>In the footnote the statement is a bit confusing as worded – it seems to imply that a collimated beam will converge to a focus.</t>
-  </si>
-  <si>
-    <t>“One of the most accessible lattice systems to realize with ultracold atoms is the Bose-Hubbard model.” – the wording is strange, just a typo(?) Bose-Hubbard is not a lattice system? Reword.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> “in Tab 5.2” inconsistent with later usage down the page, “table 5.2” and also elsewhere where “Tab. XX” is used.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> figure shows power in mW, while the caption describes the powers in Watts. Would modify the figure axis to be consistent.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Figure 6.8: From the text, it appears that these results are from the theory collaborators. They should be attributed in the figure caption.</t>
-  </si>
-  <si>
-    <t>line 10, “faraday” should be Faraday. There are several more instances of this typo in this chapter.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> First sentence: a larger range of momentum states does not necessarily mean a large phase space density.</t>
-  </si>
-  <si>
-    <t>“..transduction from photon scattering to…”, the word “transduction” means something different.</t>
-  </si>
-  <si>
-    <t>The issue of the limitation of the dynamic range should be explained. Also the contradictory issues of SNR and saturation can be dealt with two different sets of measurements, right?</t>
-  </si>
-  <si>
-    <t>“Connection to the experiment” should be emboldened (maybe just quote the section number).</t>
-  </si>
-  <si>
-    <t>“The tune-out frequency, where an atom does not interact with applied laser light…”. It is not true that at tune out frequency atoms do not interact with light, in fact, the imaginary part of the polarizability does not cancel at the tune out point.</t>
-  </si>
-  <si>
-    <t>An energy level diagram would be apt to help follow the text. “Section 5.3 gives…” needs a space.</t>
-  </si>
-  <si>
-    <t>“An equivalent model can be constructed using an LC circuit - the object of ultimate interest is the equation of motion,…” sounds very strange.</t>
-  </si>
-  <si>
-    <t>“ NIM crate..” Is NIM defined?</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>0 is even</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>No beam is perfectly collimated, and they will eventually come to a minimum waist then diverge. In any case, replaced with 'Technically speaking, the beam is not collimated in the same manner as a laser beam.
-	The divergence is reduced, but not eliminated such that the spot size remains fixed or becomes focused'</t>
-  </si>
-  <si>
-    <t>Replaced with 'One of the most accessible many-body systems to realize with ultracold bosons in an optical lattice is the Bose-Hubbard model.'</t>
-  </si>
-  <si>
-    <t>Removed acronym and left only references to the system components</t>
-  </si>
-  <si>
-    <t>Given a fixed atomic density, the statement is accurate, but I have amended to "Deeper optical dipole traps can contain more atoms at a given temperature by virtue of trapping over a larger range of particle momenta"</t>
-  </si>
-  <si>
-    <t>"The dipole beams were first aligned to overlap with the magnetic trap by piping resonant light (at 1083 nm) through the dipole beam delivery fibres instead of 1550 nm."</t>
-  </si>
-  <si>
-    <t>I think this is fine, but have changed to "The functional relationship between photon scattering and atom loss via evaporative cooling is complicated and not linear."</t>
-  </si>
-  <si>
-    <t>It's defined later in the sentence. Still, changed to "In both cases the effect of photon scattering manifests as a reduction of the total trapped final number $N$ relative to the final number $N_c$ in calibration shots."</t>
-  </si>
-  <si>
-    <t>Fair assessment. It was actually in the RF driver output. I've added a sentence "In the first case, the linewidth is a result of frequency instability in the RF drive generation system. In the second, a newer drive system was in use which afforded better performance." It might be worth fixing this as it could affect in to the in-trap cooling performance.</t>
-  </si>
-  <si>
-    <t>Changed to 'The tune-out frequency, where an atom feels no force resulting from applied laser light, is an observable that tests QED independently of the conventional measurement of energy level differences.'</t>
-  </si>
-  <si>
-    <t>Relegated LC comment to footnote</t>
-  </si>
-  <si>
-    <t>I think the XX here is a placeholder by the examiner. I have changed both instances to read 'Tab.'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latex error. The source code refs to the right section. </t>
-  </si>
-  <si>
-    <t>Not duplicated, just very similar titles. Ref 229 is an experimental result, ref 230 is theory concerning the former.</t>
-  </si>
-  <si>
-    <t>The former, amended.</t>
-  </si>
-  <si>
-    <t>This seems unnecessary, the figure is perfectly legible.</t>
   </si>
 </sst>
 </file>
@@ -639,14 +391,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -727,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -757,9 +509,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,6 +524,757 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Page</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>Done</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Examiner comment</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>Comment</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>11</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>c</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v xml:space="preserve"> extra space after He*.</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>59</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>c</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>Bad latex reference resulting in “??” partway down the page.</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>59</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>c</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v xml:space="preserve"> line “…chapters ??..”</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>80</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>c</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>Latex float issue(?) leading to a large space in the page.</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>84</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>c</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>similarly, a large space here.</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>151</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>c</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>“Connection to the experiment” should be emboldened (maybe just quote the section number).</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>192</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>c</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v xml:space="preserve"> “…alternative approach presented in section 6.2.1”. It is section 6.2.1</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v xml:space="preserve">Latex error. The source code refs to the right section. </v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>249</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>c</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v xml:space="preserve"> Ref. [250], latex typo</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>250</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>c</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v xml:space="preserve"> Ref. [351], typo “Optics COmmunications”; Ref. [353] formatting issues</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>197</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>n</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>the significance of p-value should be stated.</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>121</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>The issue of the limitation of the dynamic range should be explained. Also the contradictory issues of SNR and saturation can be dealt with two different sets of measurements, right?</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>I have added more detail to the first paragraph of section 3.3 (formerly 4.3) explaining the upper- and lower-bounds on detectable signal, and a comment agreeing with the examiner's suggestion.</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>0</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>Page numbering starts on “0” instead of “1”, seems odd.</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>0 is even</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>173</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v xml:space="preserve"> figure shows power in mW, while the caption describes the powers in Watts. Would modify the figure axis to be consistent.</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>This seems unnecessary, the figure is perfectly legible.</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>0</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>Spectrometry --- &gt; spectrometry.</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>3</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>Footnote 3, “Planck” not capitalised.</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>17</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v xml:space="preserve"> “Hydrogen”, “Helium” written with caps, should be lowercase.</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>26</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v xml:space="preserve"> footnote – “we consider -- Doubly” --&gt; “we consider. Doubly…”.</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>28</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v xml:space="preserve"> “coefficiencts” misspelled.</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>39</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v xml:space="preserve"> typo in GPE, should be “i \hbar” on left, rather than “-\hbar”.</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>44</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v xml:space="preserve"> “bell-type” --&gt; “Bell-type”.</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>44</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v xml:space="preserve"> “413nm” --&gt; “413 nm”.</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>44</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>line 5, “Bell-type” typo</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>45</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>line 4, “ molecular pumps” (extra fullstop)</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>45</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>line 5, fullstop missing</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>45</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>line 10, “faraday” should be Faraday. There are several more instances of this typo in this chapter.</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>45</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>line 13, LVIS should be defined.</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>50</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>In the footnote the statement is a bit confusing as worded – it seems to imply that a collimated beam will converge to a focus.</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>No beam is perfectly collimated, and they will eventually come to a minimum waist then diverge. In any case, replaced with 'Technically speaking, the beam is not collimated in the same manner as a laser beam.
+	The divergence is reduced, but not eliminated such that the spot size remains fixed or becomes focused'</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>51</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>Eq. (2.2), the subscript “lab” should not be italicised.</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>53</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>Missing space between number and unit in “2mm” and “1cm”.</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>58</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>In the footnote, “analogoous” misspelled.</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>63</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>“19.8eV” missing the space before the unit.</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>88</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>“One of the most accessible lattice systems to realize with ultracold atoms is the Bose-Hubbard model.” – the wording is strange, just a typo(?) Bose-Hubbard is not a lattice system? Reword.</v>
+          </cell>
+          <cell r="D33" t="str">
+            <v>Replaced with 'One of the most accessible many-body systems to realize with ultracold bosons in an optical lattice is the Bose-Hubbard model.'</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>91</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v xml:space="preserve"> “a.k.a.”</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>95</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v xml:space="preserve"> “faraday” should be “Faraday”</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>95</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v xml:space="preserve"> Is ETP the name of the manufacturer of the part?</v>
+          </cell>
+          <cell r="D36" t="str">
+            <v>The former, amended.</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>103</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v xml:space="preserve"> “..1 0 ms delay ..” extra space in 10</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>104</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v xml:space="preserve"> “Unforunately..”, second para, second line, typo</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>104</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>“ NIM crate..” Is NIM defined?</v>
+          </cell>
+          <cell r="D39" t="str">
+            <v>Removed acronym and left only references to the system components</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>106</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v xml:space="preserve"> First sentence: a larger range of momentum states does not necessarily mean a large phase space density.</v>
+          </cell>
+          <cell r="D40" t="str">
+            <v>Given a fixed atomic density, the statement is accurate, but I have amended to "Deeper optical dipole traps can contain more atoms at a given temperature by virtue of trapping over a larger range of particle momenta"</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>107</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v xml:space="preserve"> “dipole fibers” is too colloquial.</v>
+          </cell>
+          <cell r="D41" t="str">
+            <v>"The dipole beams were first aligned to overlap with the magnetic trap by piping resonant light (at 1083 nm) through the dipole beam delivery fibres instead of 1550 nm."</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>119</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>“…photon scattering signal…” what is it?</v>
+          </cell>
+          <cell r="D42" t="str">
+            <v>It's defined later in the sentence. Still, changed to "In both cases the effect of photon scattering manifests as a reduction of the total trapped final number $N$ relative to the final number $N_c$ in calibration shots."</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>121</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>“..transduction from photon scattering to…”, the word “transduction” means something different.</v>
+          </cell>
+          <cell r="D43" t="str">
+            <v>I think this is fine, but have changed to "The functional relationship between photon scattering and atom loss via evaporative cooling is complicated and not linear."</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>126</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>uK in Roman font</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>130</v>
+          </cell>
+          <cell r="B45" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>The RF linewidth of the crystal oscillator of 300kHz sounds excessively large.</v>
+          </cell>
+          <cell r="D45" t="str">
+            <v>Fair assessment. It was actually in the RF driver output. I've added a sentence "In the first case, the linewidth is a result of frequency instability in the RF drive generation system. In the second, a newer drive system was in use which afforded better performance." It might be worth fixing this as it could affect in to the in-trap cooling performance.</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>134</v>
+          </cell>
+          <cell r="B46" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v xml:space="preserve"> “section 5.3gives” missing a space</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>135</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>“The tune-out frequency, where an atom does not interact with applied laser light…”. It is not true that at tune out frequency atoms do not interact with light, in fact, the imaginary part of the polarizability does not cancel at the tune out point.</v>
+          </cell>
+          <cell r="D47" t="str">
+            <v>Changed to 'The tune-out frequency, where an atom feels no force resulting from applied laser light, is an observable that tests QED independently of the conventional measurement of energy level differences.'</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>136</v>
+          </cell>
+          <cell r="B48" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>“An equivalent model can be constructed using an LC circuit - the object of ultimate interest is the equation of motion,…” sounds very strange.</v>
+          </cell>
+          <cell r="D48" t="str">
+            <v>Relegated LC comment to footnote</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>167</v>
+          </cell>
+          <cell r="B49" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v xml:space="preserve"> \chi^2/dof ~ 1 needs a space.</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>169</v>
+          </cell>
+          <cell r="B50" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v xml:space="preserve"> “in Tab 5.2” inconsistent with later usage down the page, “table 5.2” and also elsewhere where “Tab. XX” is used.</v>
+          </cell>
+          <cell r="D50" t="str">
+            <v>I think the XX here is a placeholder by the examiner. I have changed both instances to read 'Tab.'</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>169</v>
+          </cell>
+          <cell r="B51" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v xml:space="preserve"> “ 1140(20) MHz” should not italicized</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>171</v>
+          </cell>
+          <cell r="B52" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v xml:space="preserve"> “also” twice..</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>181</v>
+          </cell>
+          <cell r="B53" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v xml:space="preserve"> “smallest precision” to “highest precision”</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>194</v>
+          </cell>
+          <cell r="B54" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v xml:space="preserve"> “especially” spelt wrong.</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>208</v>
+          </cell>
+          <cell r="B55" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v xml:space="preserve"> Figure 6.8: From the text, it appears that these results are from the theory collaborators. They should be attributed in the figure caption.</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>224</v>
+          </cell>
+          <cell r="B56" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v xml:space="preserve"> Ref. [18], “Bose-einstein”; Ref. [19] “structure of scince”</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>227</v>
+          </cell>
+          <cell r="B57" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v xml:space="preserve"> Ref. [63], “evidence,” should be capitalised, “condesnation”</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>236</v>
+          </cell>
+          <cell r="B58" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v xml:space="preserve"> Refs. [174, 175] duplicate.</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>237</v>
+          </cell>
+          <cell r="B59" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v xml:space="preserve"> Refs. [187, 188] duplicate.</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>240</v>
+          </cell>
+          <cell r="B60" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v xml:space="preserve"> Refs. [229, 230] duplicate.</v>
+          </cell>
+          <cell r="D60" t="str">
+            <v>Not duplicated, just very similar titles. Ref 229 is an experimental result, ref 230 is theory concerning the former.</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>241</v>
+          </cell>
+          <cell r="B61" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v xml:space="preserve"> Ref [237] “87RbD-line” missing space.</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>134</v>
+          </cell>
+          <cell r="B62" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>An energy level diagram would be apt to help follow the text. “Section 5.3 gives…” needs a space.</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1073,778 +1573,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A0C1BF-E025-4B76-B3E9-58E25C8C700F}">
-  <dimension ref="A1:D62"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="103.28515625" customWidth="1"/>
-    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>59</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>59</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>80</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>84</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>151</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>192</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>249</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>250</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>121</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>173</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>197</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>26</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>28</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>39</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>44</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>44</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>44</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C23" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>45</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>45</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C25" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>45</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>45</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C27" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>50</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>51</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C29" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>53</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>58</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C31" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>63</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C32" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>88</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C33" t="s">
-        <v>140</v>
-      </c>
-      <c r="D33" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>91</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C34" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>95</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>95</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C36" t="s">
-        <v>124</v>
-      </c>
-      <c r="D36" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>103</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C37" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>104</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C38" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>104</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C39" t="s">
-        <v>152</v>
-      </c>
-      <c r="D39" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>106</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" t="s">
-        <v>145</v>
-      </c>
-      <c r="D40" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>107</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C41" t="s">
-        <v>127</v>
-      </c>
-      <c r="D41" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>119</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C42" t="s">
-        <v>128</v>
-      </c>
-      <c r="D42" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>121</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C43" t="s">
-        <v>146</v>
-      </c>
-      <c r="D43" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>126</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C44" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>130</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C45" t="s">
-        <v>129</v>
-      </c>
-      <c r="D45" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>134</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C46" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>135</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C47" t="s">
-        <v>149</v>
-      </c>
-      <c r="D47" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>136</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C48" t="s">
-        <v>151</v>
-      </c>
-      <c r="D48" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>167</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C49" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>169</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C50" t="s">
-        <v>141</v>
-      </c>
-      <c r="D50" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>169</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C51" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>171</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C52" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>181</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C53" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>194</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C54" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>208</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C55" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>224</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C56" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>227</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C57" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>236</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C58" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>237</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C59" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>240</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C60" t="s">
-        <v>113</v>
-      </c>
-      <c r="D60" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>241</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C61" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>134</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C62" t="s">
-        <v>150</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D62">
-    <sortCondition ref="B2:B62"/>
-  </sortState>
-  <conditionalFormatting sqref="B2:B62">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:V80"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -3009,7 +2741,7 @@
       </c>
       <c r="D29" s="3">
         <f ca="1">TODAY()</f>
-        <v>44667</v>
+        <v>44731</v>
       </c>
       <c r="H29" t="s">
         <v>73</v>
@@ -3304,7 +3036,7 @@
       </c>
       <c r="I44" s="6">
         <f ca="1">D29+ROUNDUP(I43,0)</f>
-        <v>44673</v>
+        <v>44737</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
@@ -3462,7 +3194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C086C7-B733-4A1C-8B30-B043A00420F4}">
   <dimension ref="A1:L14"/>
   <sheetViews>
@@ -3487,7 +3219,7 @@
       </c>
       <c r="C1" s="3">
         <f ca="1">TODAY()</f>
-        <v>44667</v>
+        <v>44731</v>
       </c>
       <c r="D1" t="s">
         <v>36</v>
@@ -3502,11 +3234,11 @@
       </c>
       <c r="G2">
         <f ca="1">C1-C2</f>
-        <v>445</v>
+        <v>509</v>
       </c>
       <c r="H2">
         <f ca="1">0.8*G2</f>
-        <v>356</v>
+        <v>407.20000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -3519,7 +3251,7 @@
       </c>
       <c r="D3">
         <f ca="1">C3-C1</f>
-        <v>-333</v>
+        <v>-397</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -3607,7 +3339,7 @@
       </c>
       <c r="J7" s="5">
         <f t="shared" ref="J7:J14" ca="1" si="4">D7-TODAY()</f>
-        <v>-438</v>
+        <v>-502</v>
       </c>
       <c r="K7" t="s">
         <v>22</v>
@@ -3649,7 +3381,7 @@
       </c>
       <c r="J8" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>-381</v>
+        <v>-445</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3686,7 +3418,7 @@
       </c>
       <c r="J9" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>-360</v>
+        <v>-424</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -3723,7 +3455,7 @@
       </c>
       <c r="J10" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>-353</v>
+        <v>-417</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -3760,7 +3492,7 @@
       </c>
       <c r="J11" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>-346</v>
+        <v>-410</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3797,7 +3529,7 @@
       </c>
       <c r="J12" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>-342</v>
+        <v>-406</v>
       </c>
       <c r="K12" t="s">
         <v>21</v>
@@ -3840,7 +3572,7 @@
       </c>
       <c r="J13" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>-340</v>
+        <v>-404</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3874,7 +3606,7 @@
       </c>
       <c r="J14" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>-333</v>
+        <v>-397</v>
       </c>
     </row>
   </sheetData>
